--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73165078022225</v>
+        <v>2.668749</v>
       </c>
       <c r="H2">
-        <v>1.73165078022225</v>
+        <v>8.006247</v>
       </c>
       <c r="I2">
-        <v>0.06539911077978586</v>
+        <v>0.08514925498774344</v>
       </c>
       <c r="J2">
-        <v>0.06539911077978586</v>
+        <v>0.08514925498774345</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>224.808430360729</v>
+        <v>0.2781686666666667</v>
       </c>
       <c r="N2">
-        <v>224.808430360729</v>
+        <v>0.834506</v>
       </c>
       <c r="O2">
-        <v>0.9986463269762083</v>
+        <v>0.001228014730390642</v>
       </c>
       <c r="P2">
-        <v>0.9986463269762083</v>
+        <v>0.001228014730390642</v>
       </c>
       <c r="Q2">
-        <v>389.2896938346958</v>
+        <v>0.7423623509980001</v>
       </c>
       <c r="R2">
-        <v>389.2896938346958</v>
+        <v>6.681261158982</v>
       </c>
       <c r="S2">
-        <v>0.06531058176774329</v>
+        <v>0.0001045645394067378</v>
       </c>
       <c r="T2">
-        <v>0.06531058176774329</v>
+        <v>0.0001045645394067378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73165078022225</v>
+        <v>2.668749</v>
       </c>
       <c r="H3">
-        <v>1.73165078022225</v>
+        <v>8.006247</v>
       </c>
       <c r="I3">
-        <v>0.06539911077978586</v>
+        <v>0.08514925498774344</v>
       </c>
       <c r="J3">
-        <v>0.06539911077978586</v>
+        <v>0.08514925498774345</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.304729611955527</v>
+        <v>225.778076</v>
       </c>
       <c r="N3">
-        <v>0.304729611955527</v>
+        <v>677.3342279999999</v>
       </c>
       <c r="O3">
-        <v>0.001353673023791693</v>
+        <v>0.9967290940769435</v>
       </c>
       <c r="P3">
-        <v>0.001353673023791693</v>
+        <v>0.9967290940769435</v>
       </c>
       <c r="Q3">
-        <v>0.5276852702996119</v>
+        <v>602.5450145469239</v>
       </c>
       <c r="R3">
-        <v>0.5276852702996119</v>
+        <v>5422.905130922316</v>
       </c>
       <c r="S3">
-        <v>8.852901204256064E-05</v>
+        <v>0.08487073978526018</v>
       </c>
       <c r="T3">
-        <v>8.852901204256064E-05</v>
+        <v>0.08487073978526019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.16733401959784</v>
+        <v>2.668749</v>
       </c>
       <c r="H4">
-        <v>1.16733401959784</v>
+        <v>8.006247</v>
       </c>
       <c r="I4">
-        <v>0.0440866066857277</v>
+        <v>0.08514925498774344</v>
       </c>
       <c r="J4">
-        <v>0.0440866066857277</v>
+        <v>0.08514925498774345</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>224.808430360729</v>
+        <v>0.4627536666666667</v>
       </c>
       <c r="N4">
-        <v>224.808430360729</v>
+        <v>1.388261</v>
       </c>
       <c r="O4">
-        <v>0.9986463269762083</v>
+        <v>0.002042891192665893</v>
       </c>
       <c r="P4">
-        <v>0.9986463269762083</v>
+        <v>0.002042891192665893</v>
       </c>
       <c r="Q4">
-        <v>262.4265286524708</v>
+        <v>1.234973385163</v>
       </c>
       <c r="R4">
-        <v>262.4265286524708</v>
+        <v>11.114760466467</v>
       </c>
       <c r="S4">
-        <v>0.04402692783554672</v>
+        <v>0.0001739506630765234</v>
       </c>
       <c r="T4">
-        <v>0.04402692783554672</v>
+        <v>0.0001739506630765234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.16733401959784</v>
+        <v>1.403995666666667</v>
       </c>
       <c r="H5">
-        <v>1.16733401959784</v>
+        <v>4.211987000000001</v>
       </c>
       <c r="I5">
-        <v>0.0440866066857277</v>
+        <v>0.04479596433485759</v>
       </c>
       <c r="J5">
-        <v>0.0440866066857277</v>
+        <v>0.04479596433485759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.304729611955527</v>
+        <v>0.2781686666666667</v>
       </c>
       <c r="N5">
-        <v>0.304729611955527</v>
+        <v>0.834506</v>
       </c>
       <c r="O5">
-        <v>0.001353673023791693</v>
+        <v>0.001228014730390642</v>
       </c>
       <c r="P5">
-        <v>0.001353673023791693</v>
+        <v>0.001228014730390642</v>
       </c>
       <c r="Q5">
-        <v>0.3557212428145353</v>
+        <v>0.3905476026024445</v>
       </c>
       <c r="R5">
-        <v>0.3557212428145353</v>
+        <v>3.514928423422</v>
       </c>
       <c r="S5">
-        <v>5.96788501809841E-05</v>
+        <v>5.501010406525898E-05</v>
       </c>
       <c r="T5">
-        <v>5.96788501809841E-05</v>
+        <v>5.501010406525898E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5792158909068</v>
+        <v>1.403995666666667</v>
       </c>
       <c r="H6">
-        <v>23.5792158909068</v>
+        <v>4.211987000000001</v>
       </c>
       <c r="I6">
-        <v>0.8905142825344865</v>
+        <v>0.04479596433485759</v>
       </c>
       <c r="J6">
-        <v>0.8905142825344865</v>
+        <v>0.04479596433485759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>224.808430360729</v>
+        <v>225.778076</v>
       </c>
       <c r="N6">
-        <v>224.808430360729</v>
+        <v>677.3342279999999</v>
       </c>
       <c r="O6">
-        <v>0.9986463269762083</v>
+        <v>0.9967290940769435</v>
       </c>
       <c r="P6">
-        <v>0.9986463269762083</v>
+        <v>0.9967290940769435</v>
       </c>
       <c r="Q6">
-        <v>5300.806513571516</v>
+        <v>316.9914403323373</v>
       </c>
       <c r="R6">
-        <v>5300.806513571516</v>
+        <v>2852.922962991036</v>
       </c>
       <c r="S6">
-        <v>0.8893088173729183</v>
+        <v>0.04464944094978568</v>
       </c>
       <c r="T6">
-        <v>0.8893088173729183</v>
+        <v>0.04464944094978568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.5792158909068</v>
+        <v>1.403995666666667</v>
       </c>
       <c r="H7">
-        <v>23.5792158909068</v>
+        <v>4.211987000000001</v>
       </c>
       <c r="I7">
-        <v>0.8905142825344865</v>
+        <v>0.04479596433485759</v>
       </c>
       <c r="J7">
-        <v>0.8905142825344865</v>
+        <v>0.04479596433485759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.304729611955527</v>
+        <v>0.4627536666666667</v>
       </c>
       <c r="N7">
-        <v>0.304729611955527</v>
+        <v>1.388261</v>
       </c>
       <c r="O7">
-        <v>0.001353673023791693</v>
+        <v>0.002042891192665893</v>
       </c>
       <c r="P7">
-        <v>0.001353673023791693</v>
+        <v>0.002042891192665893</v>
       </c>
       <c r="Q7">
-        <v>7.185285308651625</v>
+        <v>0.6497041427341113</v>
       </c>
       <c r="R7">
-        <v>7.185285308651625</v>
+        <v>5.847337284607001</v>
       </c>
       <c r="S7">
-        <v>0.001205465161568149</v>
+        <v>9.151328100665603E-05</v>
       </c>
       <c r="T7">
-        <v>0.001205465161568149</v>
+        <v>9.151328100665602E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>27.26926766666667</v>
+      </c>
+      <c r="H8">
+        <v>81.80780300000001</v>
+      </c>
+      <c r="I8">
+        <v>0.8700547806773989</v>
+      </c>
+      <c r="J8">
+        <v>0.8700547806773991</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2781686666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.834506</v>
+      </c>
+      <c r="O8">
+        <v>0.001228014730390642</v>
+      </c>
+      <c r="P8">
+        <v>0.001228014730390642</v>
+      </c>
+      <c r="Q8">
+        <v>7.585455827813112</v>
+      </c>
+      <c r="R8">
+        <v>68.269102450318</v>
+      </c>
+      <c r="S8">
+        <v>0.001068440086918646</v>
+      </c>
+      <c r="T8">
+        <v>0.001068440086918646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>27.26926766666667</v>
+      </c>
+      <c r="H9">
+        <v>81.80780300000001</v>
+      </c>
+      <c r="I9">
+        <v>0.8700547806773989</v>
+      </c>
+      <c r="J9">
+        <v>0.8700547806773991</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>225.778076</v>
+      </c>
+      <c r="N9">
+        <v>677.3342279999999</v>
+      </c>
+      <c r="O9">
+        <v>0.9967290940769435</v>
+      </c>
+      <c r="P9">
+        <v>0.9967290940769435</v>
+      </c>
+      <c r="Q9">
+        <v>6156.802787709009</v>
+      </c>
+      <c r="R9">
+        <v>55411.22508938109</v>
+      </c>
+      <c r="S9">
+        <v>0.8672089133418976</v>
+      </c>
+      <c r="T9">
+        <v>0.8672089133418978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.26926766666667</v>
+      </c>
+      <c r="H10">
+        <v>81.80780300000001</v>
+      </c>
+      <c r="I10">
+        <v>0.8700547806773989</v>
+      </c>
+      <c r="J10">
+        <v>0.8700547806773991</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4627536666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.388261</v>
+      </c>
+      <c r="O10">
+        <v>0.002042891192665893</v>
+      </c>
+      <c r="P10">
+        <v>0.002042891192665893</v>
+      </c>
+      <c r="Q10">
+        <v>12.61895360006478</v>
+      </c>
+      <c r="R10">
+        <v>113.570582400583</v>
+      </c>
+      <c r="S10">
+        <v>0.001777427248582713</v>
+      </c>
+      <c r="T10">
+        <v>0.001777427248582713</v>
       </c>
     </row>
   </sheetData>
